--- a/console/Elastic-Compute/Virtual-Machine/diskXlsx/constParam.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/diskXlsx/constParam.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,81 +16,292 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
-  <si>
-    <t>错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩容失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂载失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸载失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已挂载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸载中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除快照中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作快照中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级容量中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>list_infoList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detaching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleting snapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creating snapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrading capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>common_infoList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SSD云盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高效云盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地盘</t>
+    <t>SSD Cloud Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premium Hdd Cloud Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local Disk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>创建中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>卸载中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>删除中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>删除快照中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>恢复中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>制作快照中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>升级容量中</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>云盘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>高效云盘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>本地盘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_infoList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>错误</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>扩容失败</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expansion failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>未知错误</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>挂载失败</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attach failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>卸载失败</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detach failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>已挂载</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attached</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>可用</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +323,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,8 +357,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -146,12 +370,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -193,7 +420,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,7 +455,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,148 +664,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
